--- a/data/income_statement/2digits/size/07_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/07_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>07-Mining of metal ores</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>07-Mining of metal ores</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,848 +841,958 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2562508.43449</v>
+        <v>2450365.17222</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>3612683.456350001</v>
+        <v>3495177.10301</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>5668096.518290001</v>
+        <v>5585484.7695</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>7050333.95779</v>
+        <v>6818469.636390001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>7085899.524459999</v>
+        <v>7411564.392040001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>6702698.85558</v>
+        <v>7533413.8336</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>6956113.23492</v>
+        <v>7178106.08008</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>7295008.038840001</v>
+        <v>6975844.29134</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>11923778.0835</v>
+        <v>11606640.91599</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>14843860.70937</v>
+        <v>14227278.40262</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>22449928.58995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>22011116.617</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>35881319.907</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1557486.20503</v>
+        <v>1503951.12534</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2430457.43643</v>
+        <v>2371813.01018</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>4268365.95383</v>
+        <v>4216785.55275</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4944192.363019999</v>
+        <v>4811895.49951</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4156088.68089</v>
+        <v>4482364.33377</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4204499.61648</v>
+        <v>4750300.06262</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4703204.608899999</v>
+        <v>4881833.48962</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4890314.38007</v>
+        <v>4665103.9348</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>8375469.97038</v>
+        <v>8179562.71187</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>10884183.89718</v>
+        <v>10545152.51481</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>17531803.98501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>17275502.37775</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>26685081.973</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>967186.3013399999</v>
+        <v>918167.8383299999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1135498.85973</v>
+        <v>1092831.68739</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1349082.78315</v>
+        <v>1326066.13435</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2036836.90299</v>
+        <v>1954790.59909</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>2863371.21467</v>
+        <v>2879690.554169999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2437942.56118</v>
+        <v>2712379.47991</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2168177.22719</v>
+        <v>2205075.14488</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>2305982.93073</v>
+        <v>2245249.4771</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>3383951.67401</v>
+        <v>3287385.57018</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>3842036.06773</v>
+        <v>3595576.726439999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>4772376.47865</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>4625058.7016</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>9002899.967</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>37835.92812</v>
+        <v>28246.20855</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>46727.16019</v>
+        <v>30532.40544</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>50647.78131</v>
+        <v>42633.0824</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>69304.69178000001</v>
+        <v>51783.53779</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>66439.6289</v>
+        <v>49509.5041</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>60256.67792</v>
+        <v>70734.29106999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>84731.39882999999</v>
+        <v>91197.44558</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>98710.72803999999</v>
+        <v>65490.87944</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>164356.43911</v>
+        <v>139692.63394</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>117640.74446</v>
+        <v>86549.16136999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>145748.12629</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>110555.53765</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>193337.967</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>136841.61379</v>
+        <v>135765.58355</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>150377.52505</v>
+        <v>149058.3969</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>167899.52684</v>
+        <v>167540.69247</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>224362.67583</v>
+        <v>218969.78094</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>204917.69098</v>
+        <v>206515.5792</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>265347.50719</v>
+        <v>271067.62086</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>205926.69179</v>
+        <v>211863.20693</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>209291.65299</v>
+        <v>175777.24648</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>263647.01427</v>
+        <v>246898.51875</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>287219.35112</v>
+        <v>265584.37233</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>290460.53042</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>281342.79314</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>359306.4</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2228.22413</v>
+        <v>1814.62401</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>4392.69524</v>
+        <v>4172.26931</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3518.25637</v>
+        <v>3516.62451</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>9154.80572</v>
+        <v>7126.11339</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4002.53341</v>
+        <v>7446.79566</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>4385.08232</v>
+        <v>8014.11291</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>16422.4411</v>
+        <v>20047.66879</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>41390.31107</v>
+        <v>8000.87653</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>103282.3918</v>
+        <v>86822.46740000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>21840.64431</v>
+        <v>21669.63945</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>27702.8565</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>22758.72413</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>35438.186</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>126674.05565</v>
+        <v>126568.79909</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>140693.7913</v>
+        <v>140431.6585</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>160255.32658</v>
+        <v>160242.11736</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>207576.53418</v>
+        <v>204379.43305</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>190703.03426</v>
+        <v>188827.7732</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>252181.73123</v>
+        <v>252169.74902</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>178741.93306</v>
+        <v>181031.43005</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>163302.78471</v>
+        <v>163286.59622</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>138133.07522</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>195661.01669</v>
+        <v>195527.22414</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>222043.60559</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>221619.26762</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>275758.076</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>7939.33401</v>
+        <v>7382.16045</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>5291.038509999999</v>
+        <v>4454.46909</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>4125.94389</v>
+        <v>3781.9506</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>7631.335929999999</v>
+        <v>7464.2345</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>10212.12331</v>
+        <v>10241.01034</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>8780.693640000001</v>
+        <v>10883.75893</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>10762.31763</v>
+        <v>10784.10809</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>4598.55721</v>
+        <v>4489.773730000001</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>22231.54725</v>
+        <v>21942.97613</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>69717.69011999998</v>
+        <v>48387.50874</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>40714.06832999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>36964.80139</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>48110.138</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2425666.8207</v>
+        <v>2314599.58867</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3462305.9313</v>
+        <v>3346118.70611</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>5500196.99145</v>
+        <v>5417944.077029999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>6825971.28196</v>
+        <v>6599499.85545</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>6880981.83348</v>
+        <v>7205048.81284</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>6437351.348389999</v>
+        <v>7262346.212739999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>6750186.54313</v>
+        <v>6966242.873149999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>7085716.38585</v>
+        <v>6800067.044860001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>11660131.06923</v>
+        <v>11359742.39724</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>14556641.35825</v>
+        <v>13961694.03029</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>22159468.05953</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>21729773.82386</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>35522013.507</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1279048.9626</v>
+        <v>1202099.58469</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1738570.98288</v>
+        <v>1662716.42584</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2384792.18453</v>
+        <v>2325203.86984</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3265774.8675</v>
+        <v>3087005.32475</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3417969.49201</v>
+        <v>3658875.19131</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3650187.69074</v>
+        <v>4097196.07312</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4019655.29397</v>
+        <v>4184614.033890001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4249867.01554</v>
+        <v>4048317.37462</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>6707680.10601</v>
+        <v>6474219.97391</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>8031645.573639999</v>
+        <v>7757076.30879</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>11591213.35584</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>11366342.03895</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>16156365.04</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1084577.90404</v>
+        <v>1040920.55155</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1537982.05246</v>
+        <v>1485339.04253</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>2092954.71247</v>
+        <v>2054083.47367</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>2961445.2417</v>
+        <v>2819895.25492</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3255855.77869</v>
+        <v>3211796.06594</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>3443805.54893</v>
+        <v>3730181.4589</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3747473.76048</v>
+        <v>3760362.20523</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>3829300.00115</v>
+        <v>3717429.32533</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>5371977.20568</v>
+        <v>5210587.661780001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>7524002.529770001</v>
+        <v>7361327.77185</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>10795405.9864</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>10614253.23705</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>15459314.217</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>70191.98477</v>
+        <v>54738.89320000001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>55071.95372</v>
+        <v>51621.3651</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>103595.8075</v>
+        <v>95452.67571000001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>173981.42102</v>
+        <v>143526.24106</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>103441.21197</v>
+        <v>160113.54685</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>131043.82715</v>
+        <v>181744.64199</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>139169.47822</v>
+        <v>186609.37788</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>207291.70131</v>
+        <v>148465.02737</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>605431.01325</v>
+        <v>554670.71709</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>233243.24023</v>
+        <v>231897.63094</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>354607.77411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>324736.85484</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>396730.28</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>120121.15796</v>
+        <v>102767.16366</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>139346.44887</v>
+        <v>123693.33376</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>179792.29989</v>
+        <v>170701.80943</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>120997.20483</v>
+        <v>117508.51464</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>50302.50482</v>
+        <v>280383.40867</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>61085.27921</v>
+        <v>172174.95649</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>114653.17367</v>
+        <v>219780.54103</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>194955.20393</v>
+        <v>166998.50142</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>675284.26286</v>
+        <v>657863.85298</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>243957.72739</v>
+        <v>136611.05524</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>396983.2574000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>383345.25041</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>264842.269</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>4157.91583</v>
+        <v>3672.97628</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>6170.52783</v>
+        <v>2062.68445</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>8449.364669999999</v>
+        <v>4965.91103</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>9350.999950000001</v>
+        <v>6075.31413</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>8369.99653</v>
+        <v>6582.169849999999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>14253.03545</v>
+        <v>13095.01574</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>18358.8816</v>
+        <v>17861.90975</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>18320.10915</v>
+        <v>15424.5205</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>54987.62422</v>
+        <v>51097.74206</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>30442.07625</v>
+        <v>27239.85076</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>44216.33793</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>44006.69665</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>35478.274</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1146617.8581</v>
+        <v>1112500.00398</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1723734.94842</v>
+        <v>1683402.28027</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>3115404.80692</v>
+        <v>3092740.20719</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>3560196.41446</v>
+        <v>3512494.5307</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>3463012.34147</v>
+        <v>3546173.62153</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2787163.65765</v>
+        <v>3165150.13962</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2730531.24916</v>
+        <v>2781628.83926</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2835849.37031</v>
+        <v>2751749.67024</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>4952450.963219999</v>
+        <v>4885522.42333</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>6524995.78461</v>
+        <v>6204617.7215</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>10568254.70369</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>10363431.78491</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>19365648.467</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>243807.79522</v>
+        <v>211625.84414</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>348049.07649</v>
+        <v>306450.28277</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>489892.41585</v>
+        <v>461888.0184299999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>666415.8323</v>
+        <v>590409.851</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>712670.02133</v>
+        <v>671415.0501399999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>792506.6570499999</v>
+        <v>800447.47705</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>904930.64906</v>
+        <v>899586.7772100001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>919179.57089</v>
+        <v>803474.0835899999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1225259.30051</v>
+        <v>1159401.68372</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1387884.81656</v>
+        <v>1260382.416</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1860897.18956</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1729239.31066</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2345338.936</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1752.52317</v>
+        <v>1746.3543</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>12566.99148</v>
+        <v>11885.93952</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>19448.872</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>32758.37444</v>
+        <v>32611.96257</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>19908.59382</v>
+        <v>20489.74182</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>21766.62162</v>
+        <v>22475.3368</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>32728.9896</v>
+        <v>32366.32805</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>19381.33057</v>
+        <v>14834.80481</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>21761.69441</v>
+        <v>18647.35262</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>33590.43867</v>
+        <v>29445.81025</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>117353.66875</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>109690.10274</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>67423.94500000001</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>56656.18974</v>
+        <v>48807.71865</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>88838.17378</v>
+        <v>77022.83763999998</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>100736.9758</v>
+        <v>94274.18394</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>177110.4406</v>
+        <v>158289.84715</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>191651.03947</v>
+        <v>178150.78619</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>235928.09005</v>
+        <v>240890.22853</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>215555.82022</v>
+        <v>215080.61457</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>240435.00926</v>
+        <v>225918.14408</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>376585.38265</v>
+        <v>369048.73546</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>452953.47363</v>
+        <v>431102.76437</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>568155.17632</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>541225.00344</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>788910.077</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>185399.08231</v>
+        <v>161071.77119</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>246643.91123</v>
+        <v>217541.50561</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>369706.56805</v>
+        <v>348164.96249</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>456547.01726</v>
+        <v>399508.0412799999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>501110.38804</v>
+        <v>472774.52213</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>534811.94538</v>
+        <v>537081.91172</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>656645.83924</v>
+        <v>652139.83459</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>659363.2310599999</v>
+        <v>562721.1347000001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>826912.22345</v>
+        <v>771705.5956400001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>901340.90426</v>
+        <v>799833.84138</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1175388.34449</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1078324.20448</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1489004.914</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>902810.0628800001</v>
+        <v>900874.15984</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1375685.87193</v>
+        <v>1376951.9975</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2625512.39107</v>
+        <v>2630852.18876</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2893780.58216</v>
+        <v>2922084.6797</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2750342.32014</v>
+        <v>2874758.57139</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1994657.0006</v>
+        <v>2364702.66257</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1825600.6001</v>
+        <v>1882042.06205</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1916669.79942</v>
+        <v>1948275.58665</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>3727191.66271</v>
+        <v>3726120.73961</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>5137110.96805</v>
+        <v>4944235.3055</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>8707357.51413</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>8634192.47425</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>17020309.531</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>235655.91874</v>
+        <v>174364.66763</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>375947.74682</v>
+        <v>224815.55675</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>751508.2296699999</v>
+        <v>695169.01426</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>602594.65572</v>
+        <v>519550.41025</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>857833.77555</v>
+        <v>812716.4069600001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>746122.0571699999</v>
+        <v>777686.06679</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1737297.86808</v>
+        <v>1555838.64228</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2054478.71618</v>
+        <v>1675287.79728</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>2367058.81887</v>
+        <v>2128435.99719</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>7722876.12571</v>
+        <v>5885632.311609999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>4843974.70378</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>4080860.71167</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>8561979.738</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>22743.35161</v>
+        <v>1669.34928</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>19170.76499</v>
+        <v>2705.91473</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>7328.06505</v>
+        <v>6648.954360000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>30029.57926</v>
+        <v>29800.89985</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>13464.22546</v>
+        <v>13700.67168</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>7621.60071</v>
@@ -1790,7 +1801,7 @@
         <v>20744.5866</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>28081.09279</v>
+        <v>22364.64568</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>48693.58357</v>
@@ -1801,101 +1812,116 @@
       <c r="M26" s="48" t="n">
         <v>101442.47213</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>45737.86</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>5488.85941</v>
+        <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>16856.80039</v>
+        <v>2551.70268</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>651.98968</v>
+        <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>551.0092900000001</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>14243.69585</v>
+        <v>968.35546</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>8556.849809999998</v>
+        <v>759.0492399999999</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>16793.71423</v>
+        <v>631.1919300000001</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>36061.69901</v>
+        <v>878.32177</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>919055.83413</v>
+        <v>2424.29655</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>284194.04831</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>48963.21717</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>2063.613</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>66991.74768</v>
+        <v>50662.0975</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>97580.24899000001</v>
+        <v>84045.00704</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>152629.44566</v>
+        <v>139355.54191</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>242563.79569</v>
+        <v>200942.69741</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>198124.08122</v>
+        <v>166487.255</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>163939.27805</v>
+        <v>141242.00343</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>143805.56508</v>
+        <v>123605.75015</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>229991.40472</v>
+        <v>183690.05478</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>376543.06198</v>
+        <v>325385.8427</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>710131.5466</v>
+        <v>533016.28831</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1082944.58661</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>918459.48976</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1114730.605</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>289.6893</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1541.38548</v>
+        <v>1119.8299</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1872.31221</v>
+        <v>1867.63453</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>9073.81057</v>
+        <v>2.85767</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>0</v>
@@ -1904,37 +1930,42 @@
         <v>0</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>42.84401</v>
+        <v>42.8428</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>126.00207</v>
+        <v>121.79568</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>108.13532</v>
+        <v>99.60505999999999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>12832.92608</v>
+        <v>0</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>8598.51138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>77.99185</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>4750.38917</v>
+        <v>2812.81514</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1241.65442</v>
+        <v>952.24842</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>11314.30669</v>
+        <v>8617.440199999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1883.17699</v>
+        <v>1837.05343</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>3015.30391</v>
@@ -1943,106 +1974,121 @@
         <v>8715.969550000002</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5080.01131</v>
+        <v>4221.06619</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>9155.132599999999</v>
+        <v>9149.88514</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>20977.14948</v>
+        <v>20915.75649</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>9327.50123</v>
+        <v>4549.62817</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>12855.99272</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>6704.25591</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>10327.128</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>14612.43831</v>
+        <v>14607.91857</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>234.75078</v>
+        <v>177.07772</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>94147.60498</v>
+        <v>83185.55207999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>673.7832</v>
+        <v>49.29735000000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>4712.42447</v>
+        <v>4698.14464</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>11442.46435</v>
+        <v>11430.23312</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>8699.336569999998</v>
+        <v>8832.11184</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>42708.8484</v>
+        <v>14685.20284</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>16818.83825</v>
+        <v>14845.64996</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>12515.79593</v>
+        <v>808.04718</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>150633.64635</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>139312.01215</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>57341.816</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>104384.11505</v>
+        <v>90640.23520000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>140817.28355</v>
+        <v>116561.60305</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>441456.2882</v>
+        <v>415052.24712</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>261481.70022</v>
+        <v>233912.28198</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>551147.0703200001</v>
+        <v>536946.0479300001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>473227.43745</v>
+        <v>538929.97063</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1416283.46925</v>
+        <v>1288703.83269</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1639423.43705</v>
+        <v>1360933.67872</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1498821.97237</v>
+        <v>1351823.9303</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>5410835.42358</v>
+        <v>4702045.881480001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2847000.12884</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2517746.61922</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>6776250.348</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>2918.53609</v>
+        <v>2911.48019</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>837.16919</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>130740.643</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,185 +2164,210 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>13476.79212</v>
+        <v>10771.08245</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>98504.85821999999</v>
+        <v>16702.17321</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>42760.20688000001</v>
+        <v>40441.64406000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>44117.12611</v>
+        <v>40885.62856</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>83678.53504</v>
+        <v>84176.84867000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>66336.72778</v>
+        <v>68183.05046000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>133809.69521</v>
+        <v>108653.89253</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>88196.96467</v>
+        <v>83709.22285999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>365768.31225</v>
+        <v>362527.2407</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>561913.1275599999</v>
+        <v>556524.19932</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>355468.14825</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>347317.4842899999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>424787.725</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>191542.42881</v>
+        <v>170193.67258</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>211018.92825</v>
+        <v>158430.18624</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>591790.1098100001</v>
+        <v>546618.41977</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>332671.7359199999</v>
+        <v>308412.33393</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>442703.50126</v>
+        <v>375665.85018</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>414812.69922</v>
+        <v>453297.14142</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>894006.75509</v>
+        <v>724970.29203</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1281902.19227</v>
+        <v>1041932.35673</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1589621.01379</v>
+        <v>1444723.09149</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>4422810.549179999</v>
+        <v>3714208.37118</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2890595.36581</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2559605.46196</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>6551145.3</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1369.17998</v>
+        <v>1329.06401</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1881.42113</v>
+        <v>1785.59254</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1456.21571</v>
+        <v>1425.00438</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1471.10046</v>
+        <v>1468.10296</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>517.4914199999999</v>
+        <v>524.81209</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>180.53517</v>
+        <v>234.31845</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>51.00109</v>
+        <v>72.00984</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>75.45924000000001</v>
+        <v>70.79607</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2839.41058</v>
+        <v>86.78447</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1140.02804</v>
+        <v>121.66796</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1517.06675</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>800.9533100000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>271.191</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>13380.91285</v>
+        <v>8767.16209</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>8863.326010000001</v>
+        <v>8055.0007</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>13537.8801</v>
+        <v>13321.02817</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>20897.96473</v>
+        <v>20861.78932</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>16377.88389</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>15174.99514</v>
+        <v>15317.18619</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>25515.88687</v>
+        <v>25484.88019</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>24702.63605</v>
+        <v>24671.54295</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>48804.45462999999</v>
+        <v>48761.11723</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>58937.37602</v>
+        <v>52785.96995000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>66600.82049</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>41713.73958</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>55469.097</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>50740.06465</v>
+        <v>50740.00905</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>42.20399</v>
+        <v>39.50398999999999</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>75092.43751999999</v>
+        <v>72717.33752</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>138.9109</v>
+        <v>134.09188</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>12.50148</v>
+        <v>158.01324</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>17338.77152</v>
@@ -2303,55 +2379,65 @@
         <v>28346.20881</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>22160.747</v>
+        <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>50006.27198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>50001.0677</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>188102.394</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>95936.22087999999</v>
+        <v>79723.77554999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>134438.9922</v>
+        <v>108045.87653</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>432167.68261</v>
+        <v>392731.58428</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>263261.96579</v>
+        <v>242639.98501</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>366016.32276</v>
+        <v>299358.908</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>334497.99979</v>
+        <v>375855.11078</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>752909.75741</v>
+        <v>591512.71869</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1137418.24408</v>
+        <v>898002.56213</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1281822.15994</v>
+        <v>1150691.01065</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>4205351.33929</v>
+        <v>3528289.91087</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2672212.81319</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2377350.13414</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>6080073.334</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>26.0223</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>61579.054</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>14017.17777</v>
@@ -2414,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0.00308</v>
+        <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>16072.85038</v>
+        <v>15590.46181</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>49803.08033</v>
+        <v>24514.30789</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>41421.2434</v>
+        <v>38308.81495</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>32621.02934</v>
+        <v>29027.60006</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>40786.62849</v>
+        <v>40399.0715</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>61530.01282000001</v>
+        <v>58315.85793999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>97474.86790000001</v>
+        <v>89845.44149</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>106371.22335</v>
+        <v>105852.82911</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>227263.19609</v>
+        <v>216292.38659</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>133594.15247</v>
+        <v>131383.91604</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>100255.6434</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>89736.81722999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>165650.23</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>44236.89511999999</v>
+        <v>31323.57745</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>48008.35079</v>
+        <v>36707.94963</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>95509.56217</v>
+        <v>86545.24790999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>133771.18806</v>
+        <v>114977.94647</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>141826.6936</v>
+        <v>135315.22921</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>142011.3753</v>
+        <v>127384.5358</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>300632.97623</v>
+        <v>272429.57513</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>417726.1136699999</v>
+        <v>325257.73557</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>728850.05217</v>
+        <v>670119.89036</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1074067.0957</v>
+        <v>971108.19338</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>963544.50109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>877328.67959</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1889151.893</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>33752.05025</v>
+        <v>24012.50558</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>33216.75215</v>
+        <v>24828.70728</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>59613.33202</v>
+        <v>52830.4483</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>83556.32888</v>
+        <v>68015.64423000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>120028.19253</v>
+        <v>114079.01667</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>104487.86287</v>
+        <v>89935.81289</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>222749.1856</v>
+        <v>218606.18426</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>314165.35701</v>
+        <v>228292.17016</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>393345.41366</v>
+        <v>340811.07551</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>529934.42256</v>
+        <v>459301.07945</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>629933.21929</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>590311.0448500001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>992595.626</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>10484.84487</v>
+        <v>7311.07187</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>14791.59864</v>
+        <v>11879.24235</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>35896.23015</v>
+        <v>33714.79961</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>50214.85918</v>
+        <v>46962.30224</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>21798.50107</v>
+        <v>21236.21254</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>37523.51243</v>
+        <v>37448.72291</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>77883.79062999999</v>
+        <v>53823.39087</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>103560.75666</v>
+        <v>96965.56541</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>335504.63851</v>
+        <v>329308.81485</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>544132.67314</v>
+        <v>511807.11393</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>333611.2818</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>287017.63474</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>896556.267</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>902686.65769</v>
+        <v>873721.5774399999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>1492606.33971</v>
+        <v>1406629.41838</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>2689720.94876</v>
+        <v>2692857.53534</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>3029932.3139</v>
+        <v>3018244.80955</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>3023645.90083</v>
+        <v>3176493.89896</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>2183954.98325</v>
+        <v>2561707.05214</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2368258.73686</v>
+        <v>2440480.83717</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>2271520.20966</v>
+        <v>2256373.29163</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>3775779.41562</v>
+        <v>3739713.75495</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>7363109.44888</v>
+        <v>6144551.05255</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>9697192.35101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>9278119.044370001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>17141992.076</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>38427.87249</v>
+        <v>29595.27667</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>34075.0805</v>
+        <v>31141.15454</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>29987.02516</v>
+        <v>26411.10063</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>74752.90418</v>
+        <v>64538.21971</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>51128.85893</v>
+        <v>58717.96176</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>68986.03133</v>
+        <v>68680.99989000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>53665.94979999999</v>
+        <v>62041.32659</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>157987.37539</v>
+        <v>69182.62053</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>723713.77267</v>
+        <v>715283.99263</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>179032.30118</v>
+        <v>164612.30485</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>214544.58093</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>210499.09456</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>274181.152</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>92.49057000000001</v>
+        <v>78.4486</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1660.5404</v>
+        <v>1652.81469</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>236.04884</v>
+        <v>135.55527</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>2855.41512</v>
+        <v>2409.77089</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>8211.778759999999</v>
+        <v>5785.27437</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1602.10027</v>
+        <v>2443.41795</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>5912.740470000001</v>
+        <v>5569.689530000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>3782.62353</v>
+        <v>3525.55995</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1324.6047</v>
+        <v>1298.36008</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>69635.12377999999</v>
+        <v>69635.0603</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>6089.700769999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>6055.66683</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>13696.962</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>38335.38192</v>
+        <v>29516.82807</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>32414.5401</v>
+        <v>29488.33985</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>29750.97632</v>
+        <v>26275.54536</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>71897.48905999999</v>
+        <v>62128.44882</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>42917.08017</v>
+        <v>52932.68739</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>67383.93106</v>
+        <v>66237.58194</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>47753.20933</v>
+        <v>56471.63706</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>154204.75186</v>
+        <v>65657.06058</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>722389.1679700001</v>
+        <v>713985.63255</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>109397.1774</v>
+        <v>94977.24455</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>208454.88016</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>204443.42773</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>260484.19</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>35699.03089</v>
+        <v>31318.58215</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>55407.83149</v>
+        <v>40153.85036</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>161979.24896</v>
+        <v>107440.23243</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>164706.2873</v>
+        <v>139130.25282</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>91475.59568000001</v>
+        <v>90626.52034</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>112179.29337</v>
+        <v>126292.94396</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>269476.54808</v>
+        <v>274607.66442</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>375925.08251</v>
+        <v>288449.80583</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>443627.19476</v>
+        <v>396593.0248</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>445133.39227</v>
+        <v>301692.20828</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>650209.89249</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>485398.81586</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>321305.238</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>18876.21679</v>
+        <v>17145.42358</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>18932.08873</v>
+        <v>17106.46282</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>26189.70341</v>
+        <v>21199.75677</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>78760.89113</v>
+        <v>62864.07828</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>31393.56953</v>
+        <v>30807.73037</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>28230.83254</v>
+        <v>28902.84672</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>157007.63932</v>
+        <v>164101.88987</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>151474.73668</v>
+        <v>120664.38932</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>125073.0931</v>
+        <v>93461.61986000001</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>299840.71573</v>
+        <v>199536.7183</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>499261.40035</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>341940.35872</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>171275.61</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1197.99413</v>
+        <v>436.27242</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1494.69956</v>
+        <v>156.8913</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>2444.87338</v>
+        <v>828.98451</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1919.65539</v>
+        <v>1245.71674</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2951.96673</v>
+        <v>2551.65391</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>4152.18327</v>
+        <v>3099.61256</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>13034.89228</v>
+        <v>13381.88647</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>3412.10447</v>
+        <v>2950.934639999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>18933.6601</v>
+        <v>18386.31647</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>5174.43309</v>
+        <v>4983.37859</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>28266.71093</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>27727.77608</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>17395.187</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>15624.81997</v>
+        <v>13736.88615</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>34981.0432</v>
+        <v>22890.49624</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>133344.67217</v>
+        <v>85411.49115</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>84025.74078000001</v>
+        <v>75020.4578</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>57130.05942000001</v>
+        <v>57267.13606</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>79796.27756</v>
+        <v>94290.48468000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>99434.01648000001</v>
+        <v>97123.88808</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>221038.24136</v>
+        <v>164834.48187</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>299620.44156</v>
+        <v>284745.08847</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>140118.24345</v>
+        <v>97172.11139000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>122681.78121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>115730.68106</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>132634.441</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>905415.4992899999</v>
+        <v>871998.2719599999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>1471273.58872</v>
+        <v>1397616.72256</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>2557728.72496</v>
+        <v>2611828.40354</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>2939978.93078</v>
+        <v>2943652.77644</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>2983299.16408</v>
+        <v>3144585.34038</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>2140761.72121</v>
+        <v>2504095.10807</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2152448.13858</v>
+        <v>2227914.49934</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>2053582.50254</v>
+        <v>2037106.10633</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>4055865.99353</v>
+        <v>4058404.72278</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>7097008.35779</v>
+        <v>6007471.14912</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>9261527.039450001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>9003219.323069999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>17094867.99</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>174525.50255</v>
+        <v>172605.8822</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>275527.09192</v>
+        <v>264448.36916</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>473034.59905</v>
+        <v>471016.90699</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>511864.71897</v>
+        <v>504663.96894</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>427869.17412</v>
+        <v>443435.86597</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>332191.77775</v>
+        <v>351485.69135</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>316410.64722</v>
+        <v>316215.9821799999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>448981.6164699999</v>
+        <v>416230.00083</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>519853.70489</v>
+        <v>507336.43134</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>919860.07024</v>
+        <v>823789.94985</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1257582.3944</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1233097.3038</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1964147.707</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>730889.99674</v>
+        <v>699392.3897599999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1195746.4968</v>
+        <v>1133168.3534</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>2084694.12591</v>
+        <v>2140811.49655</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2428114.21181</v>
+        <v>2438988.8075</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2555429.98996</v>
+        <v>2701149.47441</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1808569.94346</v>
+        <v>2152609.41672</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1836037.49136</v>
+        <v>1911698.51716</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1604600.88607</v>
+        <v>1620876.1055</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>3536012.28864</v>
+        <v>3551068.29144</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>6177148.28755</v>
+        <v>5183681.19927</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>8003944.64505</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>7770122.019269999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>15130720.283</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>32</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>